--- a/CUDA_Matrix_Multiplication/dataSources/min_times_and_speedup_NvidiaGeforce.xlsx
+++ b/CUDA_Matrix_Multiplication/dataSources/min_times_and_speedup_NvidiaGeforce.xlsx
@@ -51,10 +51,10 @@
     <t>exe time</t>
   </si>
   <si>
-    <t>ms</t>
+    <t>speed up</t>
   </si>
   <si>
-    <t>speed up</t>
+    <t>dim</t>
   </si>
 </sst>
 </file>
@@ -116,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -176,18 +176,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -197,23 +261,593 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -224,6 +858,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabella2" displayName="Tabella2" ref="A1:F9" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="A1:F9"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="dim" dataDxfId="15"/>
+    <tableColumn id="2" name="serial c++" dataDxfId="14"/>
+    <tableColumn id="3" name="straight mono" dataDxfId="13"/>
+    <tableColumn id="4" name="straight stride" dataDxfId="12"/>
+    <tableColumn id="5" name="tiled mono" dataDxfId="11"/>
+    <tableColumn id="6" name="tiled stride" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabella3" displayName="Tabella3" ref="I1:M9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="I1:M9"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="speed up" dataDxfId="4"/>
+    <tableColumn id="2" name="straight mono" dataDxfId="3"/>
+    <tableColumn id="3" name="straight stride" dataDxfId="2"/>
+    <tableColumn id="4" name="tiled mono" dataDxfId="1"/>
+    <tableColumn id="5" name="tiled stride" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,299 +1154,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="I2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>10871</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>26.747</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>26.978999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>9.6951999999999998</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>13.231</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="5">
         <v>406</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>402</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="5">
         <v>1121</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="16">
         <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>10871</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>18.079000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>18.071000000000002</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>7.4570999999999996</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>8.5050000000000008</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="5">
         <v>601</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="5">
         <v>601</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="5">
         <v>1457</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="16">
         <v>1278</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>10871</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>23.091999999999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>23.449000000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>7.0826000000000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>7.5613000000000001</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="5">
         <v>470</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>463</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="5">
         <v>1534</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="16">
         <v>1437</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="I6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>10895</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>292.35300000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>293.625</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>276.02100000000002</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="8">
         <v>280.95299999999997</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>37</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>37</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="5">
         <v>39</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="16">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>10895</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>278.68900000000002</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>281.11399999999998</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>271.50299999999999</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>273.08600000000001</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="5">
         <v>39</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="5">
         <v>38</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="5">
         <v>40</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="12">
         <v>10895</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="13">
         <v>286.52</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="13">
         <v>289.56700000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="14">
         <v>273.14999999999998</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="15">
         <v>273.29700000000003</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="17">
         <v>38</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="17">
         <v>37</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="17">
         <v>39</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="18">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I6:M6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>